--- a/kapitel-5/kreditvergabe/korrekte_kredite_greenwash2025.xlsx
+++ b/kapitel-5/kreditvergabe/korrekte_kredite_greenwash2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Gruppe</t>
   </si>
   <si>
+    <t>Vernetzung</t>
+  </si>
+  <si>
     <t>Umsatz_cat</t>
   </si>
   <si>
@@ -115,10 +118,10 @@
     <t>Karate Dojo GmbH</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>A</t>
@@ -479,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,10 +522,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>120000</v>
@@ -531,138 +537,150 @@
         <v>88000</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>117000</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>94000</v>
       </c>
       <c r="C3">
-        <v>237000</v>
+        <v>137000</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>144000</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>126000</v>
+        <v>76000</v>
       </c>
       <c r="C4">
-        <v>249000</v>
+        <v>149000</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>275000</v>
+        <v>135000</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>161000</v>
+        <v>98000</v>
       </c>
       <c r="C5">
         <v>180000</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>261000</v>
       </c>
       <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>91000</v>
@@ -677,27 +695,30 @@
         <v>198000</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>91000</v>
@@ -712,27 +733,30 @@
         <v>812000</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>963000</v>
@@ -747,62 +771,68 @@
         <v>528000</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>131000</v>
+        <v>21000</v>
       </c>
       <c r="C9">
         <v>326000</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>141000</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>81000</v>
@@ -817,27 +847,30 @@
         <v>255000</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>522000</v>
@@ -852,27 +885,30 @@
         <v>990000</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>81000</v>
@@ -887,27 +923,30 @@
         <v>178000</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>81000</v>
@@ -922,27 +961,30 @@
         <v>310000</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>110000</v>
@@ -957,27 +999,30 @@
         <v>583000</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>23000</v>
@@ -992,27 +1037,30 @@
         <v>281000</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>31000</v>
@@ -1027,7 +1075,7 @@
         <v>331000</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1036,18 +1084,21 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>78000</v>
@@ -1062,27 +1113,30 @@
         <v>202000</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>59000</v>
@@ -1091,33 +1145,36 @@
         <v>295000</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>268000</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>34</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>113000</v>
@@ -1126,19 +1183,19 @@
         <v>125000</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>169000</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1146,13 +1203,16 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>64000</v>
@@ -1167,97 +1227,106 @@
         <v>232000</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>44000</v>
+        <v>544000</v>
       </c>
       <c r="C21">
         <v>413000</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>187000</v>
+        <v>887000</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>559000</v>
+        <v>159000</v>
       </c>
       <c r="C22">
-        <v>419000</v>
+        <v>119000</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>990000</v>
+        <v>170000</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>500000</v>
@@ -1266,16 +1335,16 @@
         <v>419000</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>910000</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1284,10 +1353,13 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
